--- a/Results and Graphs/cronbach's Alpha by GPT + experts  rator +Novices.xlsx
+++ b/Results and Graphs/cronbach's Alpha by GPT + experts  rator +Novices.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagitbenshoshan/Documents/Wellesley/Wellesely/Results and Graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F50B59-CE85-41B5-B966-6F806AE89222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504EF860-412D-4044-BEFC-DF31F39A9BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{99515564-E1BD-456A-B385-FB3F9175CC23}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{99515564-E1BD-456A-B385-FB3F9175CC23}"/>
   </bookViews>
   <sheets>
     <sheet name="cronbach's Alpha between GPT" sheetId="1" r:id="rId1"/>
     <sheet name="cronbach's Alpha btween experts" sheetId="2" r:id="rId2"/>
     <sheet name="cronbach's Alpha between novice" sheetId="3" r:id="rId3"/>
-    <sheet name="All Results" sheetId="4" r:id="rId4"/>
+    <sheet name="All 3 measures" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
   <si>
     <t>colab</t>
   </si>
@@ -94,8 +94,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="####.000"/>
-    <numFmt numFmtId="169" formatCode="###0"/>
+    <numFmt numFmtId="164" formatCode="####.000"/>
+    <numFmt numFmtId="165" formatCode="###0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -108,11 +108,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -193,9 +195,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -205,20 +204,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,14 +544,14 @@
       <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -557,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -567,17 +569,17 @@
       <c r="C2">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -587,17 +589,17 @@
       <c r="C3">
         <v>0.98499999999999999</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -608,7 +610,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -616,7 +618,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -626,17 +628,17 @@
       <c r="C6">
         <v>0.99099999999999999</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -644,7 +646,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -652,7 +654,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -660,7 +662,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -668,7 +670,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -676,7 +678,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -684,7 +686,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -710,27 +712,27 @@
       <selection activeCell="C6" sqref="C6:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8">
+    <row r="2" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -738,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -748,15 +750,15 @@
       <c r="C6">
         <v>0.315</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -766,16 +768,16 @@
       <c r="C7">
         <v>0.37</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -786,7 +788,7 @@
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -794,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -804,15 +806,15 @@
       <c r="C10">
         <v>-0.122</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -820,21 +822,21 @@
         <v>-0.48299999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
         <v>-0.39</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -842,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -853,7 +855,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -861,7 +863,7 @@
         <v>-0.16300000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -869,7 +871,7 @@
         <v>0.46700000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -896,9 +898,9 @@
       <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -906,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -917,7 +919,7 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
@@ -928,7 +930,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -939,7 +941,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -950,7 +952,7 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -961,7 +963,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -969,7 +971,7 @@
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -977,7 +979,7 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -985,7 +987,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -993,7 +995,7 @@
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1001,32 +1003,32 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
         <v>-3.49</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13">
         <v>-3.49</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1042,18 +1044,18 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="E18" sqref="D17:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -1070,29 +1072,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="9">
         <v>27</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="9">
         <v>0.98399999999999999</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <v>0.315</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="9">
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -1110,9 +1112,9 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1130,7 +1132,10 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="B5">
         <v>3</v>
       </c>
@@ -1147,27 +1152,30 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>27</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>0.99099999999999999</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>-0.122</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B7">
         <v>18</v>
       </c>
@@ -1184,7 +1192,10 @@
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B8">
         <v>6</v>
       </c>
@@ -1201,7 +1212,10 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="B9">
         <v>3</v>
       </c>
@@ -1218,25 +1232,28 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>27</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
         <v>0.98</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>-0.26</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="9">
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="B11">
         <v>18</v>
       </c>
@@ -1253,7 +1270,10 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="B12">
         <v>6</v>
       </c>
@@ -1270,7 +1290,10 @@
         <v>-3.49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="B13">
         <v>3</v>
       </c>
@@ -1287,7 +1310,7 @@
         <v>-3.49</v>
       </c>
     </row>
-    <row r="26" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M26">
         <f>L26/3</f>
         <v>0</v>
